--- a/hardware/bom.xlsx
+++ b/hardware/bom.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Thing</t>
   </si>
@@ -43,12 +42,6 @@
     <t>Adafruit</t>
   </si>
   <si>
-    <t>Level shifter</t>
-  </si>
-  <si>
-    <t>Boost</t>
-  </si>
-  <si>
     <t>Motor  board (Arduino v2)</t>
   </si>
   <si>
@@ -58,17 +51,80 @@
     <t>Photo interrupter</t>
   </si>
   <si>
-    <t>Resistor setting</t>
+    <t>Photo interrupter board</t>
+  </si>
+  <si>
+    <t>The resistor needs to be 1k as we are using a 3.3V power source</t>
+  </si>
+  <si>
+    <t>Note: I'm not listing the header pins or jumper wires here, you may need some if you don't already have a pack</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9299</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9322</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/13231</t>
+  </si>
+  <si>
+    <t>Power button</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/482</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/858</t>
+  </si>
+  <si>
+    <t>Power boost</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/353</t>
+  </si>
+  <si>
+    <t>6600mAh</t>
+  </si>
+  <si>
+    <t>LiPo battery</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/2465</t>
+  </si>
+  <si>
+    <t>The 500C version also works, probably should switch to it</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/1438</t>
+  </si>
+  <si>
+    <t>This must be in switch to 3V mode</t>
+  </si>
+  <si>
+    <t>Not yet integrated but likely needed:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,13 +147,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,13 +461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -415,11 +483,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -429,46 +497,140 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="2">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/hardware/bom.xlsx
+++ b/hardware/bom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Thing</t>
   </si>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t>Not yet integrated but likely needed:</t>
+  </si>
+  <si>
+    <t>NPN BJT transistor</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/521</t>
+  </si>
+  <si>
+    <t>10k Resistors</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/11508</t>
+  </si>
+  <si>
+    <t>1k Resistor</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8980</t>
+  </si>
+  <si>
+    <t>This is a single 1k, could do better to buy an assorted pack.</t>
+  </si>
+  <si>
+    <t>This is a pack of all 10ks, anything large-ish and matched is fine.</t>
   </si>
 </sst>
 </file>
@@ -461,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,27 +624,81 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -628,9 +706,10 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
